--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA55072-1AE6-4B9B-9370-C05074E32D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E199E-42AA-452C-A8FD-3DB56067DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7956" yWindow="1884" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12792" yWindow="1752" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,202 @@
   </si>
   <si>
     <t>market share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isn’t have ballet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tranditional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo in the windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premiere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  首演</t>
+  </si>
+  <si>
+    <t>anniversary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a hundred years since the birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment a student wrote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> student paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general category</t>
+  </si>
+  <si>
+    <t>covered by the term</t>
+  </si>
+  <si>
+    <t>bullying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superiority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resulting in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democratic</t>
+  </si>
+  <si>
+    <t>democratic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中介者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调节者</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +478,33 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,10 +526,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -909,8 +1134,245 @@
         <v>56</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B37">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C37">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E199E-42AA-452C-A8FD-3DB56067DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1869A9F0-6FAC-43C4-96EB-E69A6D68FA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12792" yWindow="1752" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2724" yWindow="1212" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,12 +446,114 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C14-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask about what goals you achieved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-term ambitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk to as many people as possible</t>
+  </si>
+  <si>
+    <t>get to know colleagues</t>
+  </si>
+  <si>
+    <t>check with someone</t>
+  </si>
+  <si>
+    <t>ask lots of questions</t>
+  </si>
+  <si>
+    <t>be opportunities to do overtime </t>
+  </si>
+  <si>
+    <t> Working overtime</t>
+  </si>
+  <si>
+    <t>replace the drainage channels</t>
+  </si>
+  <si>
+    <t>pay for a new flood prevention system</t>
+  </si>
+  <si>
+    <t> work together </t>
+  </si>
+  <si>
+    <t> coordination</t>
+  </si>
+  <si>
+    <t>some slides everyone can see</t>
+  </si>
+  <si>
+    <t>visuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in every</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predictable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without the need</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affecting</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>migration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +607,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF808080"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -526,12 +646,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -812,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -823,12 +947,15 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -841,8 +968,20 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,8 +994,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -869,24 +1011,42 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -899,21 +1059,39 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -926,8 +1104,14 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -937,8 +1121,14 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -948,39 +1138,96 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -990,16 +1237,25 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="G18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1037,12 +1293,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1050,7 +1306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1058,12 +1314,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1074,7 +1330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1093,7 +1349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1104,7 +1360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1869A9F0-6FAC-43C4-96EB-E69A6D68FA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525AE61-B8DE-4E76-85DF-2F790E501F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2724" yWindow="1212" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4512" yWindow="1380" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,91 @@
   </si>
   <si>
     <t>migration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town and surrounding region</t>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five additional leads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employ more teachers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>one-on-one</t>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behaviour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not as...as</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>a much higher level of</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>获得(知识)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1276,6 +1361,9 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1284,19 +1372,46 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1305,6 +1420,18 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1313,11 +1440,26 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1329,13 +1471,25 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,6 +1502,9 @@
       <c r="C30" t="s">
         <v>51</v>
       </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1359,8 +1516,20 @@
       <c r="C31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1370,16 +1539,28 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1389,13 +1570,30 @@
       <c r="C34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.4500000000000002</v>
       </c>
@@ -1406,7 +1604,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1414,27 +1612,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1445,7 +1643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1453,12 +1651,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -1474,7 +1672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525AE61-B8DE-4E76-85DF-2F790E501F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC711231-614A-4FA8-82C5-ADE1BC22C020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4512" yWindow="1380" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="254">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,12 +633,397 @@
     <t>获得(知识)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>july</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>January</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>february</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>February</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>March</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>April</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>August</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>September</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>October</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>November</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>December</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>april</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>october</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>september</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>january</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>november</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>december</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fabruary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>august</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youth club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use，不要读成young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arts and crafts</t>
+  </si>
+  <si>
+    <t>original pictures, jewellery and ceramics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ceramics</t>
+  </si>
+  <si>
+    <t>陶瓷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspired by</t>
+  </si>
+  <si>
+    <t>based on ideas</t>
+  </si>
+  <si>
+    <t>contemporary culture</t>
+  </si>
+  <si>
+    <t>everyday life</t>
+  </si>
+  <si>
+    <t>现代的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>present a receipt</t>
+  </si>
+  <si>
+    <t>buy something</t>
+  </si>
+  <si>
+    <t>winding road</t>
+  </si>
+  <si>
+    <t>弯曲的小路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>no unifying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>matters</t>
+  </si>
+  <si>
+    <t>political</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fountain </t>
+  </si>
+  <si>
+    <t>not much</t>
+  </si>
+  <si>
+    <t>very little</t>
+  </si>
+  <si>
+    <t>relates</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>silent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>january</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>february</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>september</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetarianvegetarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the volume of </t>
+  </si>
+  <si>
+    <t>The amount of traffic</t>
+  </si>
+  <si>
+    <r>
+      <t>obey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵守</t>
+  </si>
+  <si>
+    <t>thorough</t>
+  </si>
+  <si>
+    <t>in a lot of detail</t>
+  </si>
+  <si>
+    <t>crow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just like </t>
+  </si>
+  <si>
+    <t> are similar to </t>
+  </si>
+  <si>
+    <t>cliffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>especially interesting</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>brain size</t>
+  </si>
+  <si>
+    <t>the size of their brain</t>
+  </si>
+  <si>
+    <t>cognitive </t>
+  </si>
+  <si>
+    <t>认知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behaviour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavirour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,13 +1095,34 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -731,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +1147,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1021,26 +1430,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1065,8 +1487,23 @@
       <c r="J2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1519,23 @@
       <c r="G3" s="5">
         <v>45545</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1554,23 @@
       <c r="J4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1116,8 +1583,23 @@
       <c r="I5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1130,8 +1612,23 @@
       <c r="J6" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1647,23 @@
       <c r="I7" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="N7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1164,8 +1676,23 @@
       <c r="J8" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1175,8 +1702,20 @@
       <c r="J9" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="O9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1195,8 +1734,17 @@
       <c r="I10" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="O10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1212,8 +1760,17 @@
       <c r="J11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1235,8 +1792,17 @@
       <c r="J12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1816,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1283,8 +1849,11 @@
       <c r="H15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1300,8 +1869,11 @@
       <c r="J16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1311,8 +1883,14 @@
       <c r="J17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1328,8 +1906,11 @@
       <c r="J18" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1339,8 +1920,11 @@
       <c r="G19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1350,8 +1934,11 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1364,8 +1951,11 @@
       <c r="G21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1382,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1396,7 +1986,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1413,7 +2003,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1433,7 +2023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1447,7 +2037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1461,7 +2051,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1478,7 +2068,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +2082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +2096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1529,7 +2119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1546,7 +2136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1560,7 +2150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1577,7 +2167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="G35" s="2" t="s">
         <v>150</v>
       </c>
@@ -1588,12 +2178,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.4500000000000002</v>
       </c>
@@ -1604,35 +2194,80 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1642,50 +2277,95 @@
       <c r="C43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>71</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -1695,16 +2375,31 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>77</v>
       </c>
       <c r="B51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -1714,8 +2409,14 @@
       <c r="C52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -1725,16 +2426,31 @@
       <c r="C53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
       <c r="B54" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -1742,7 +2458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1753,7 +2469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -1764,7 +2480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1778,7 +2494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -1789,7 +2505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -1797,7 +2513,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -1805,7 +2521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -1816,12 +2532,178 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC711231-614A-4FA8-82C5-ADE1BC22C020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E592B350-E6C0-4C41-AE7F-F6BD4600FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="432" windowWidth="8160" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="337">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,12 +1018,349 @@
     <t>temporary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>races</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> instead of</t>
+  </si>
+  <si>
+    <t>排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> fill in a form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete the relevant form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>outdated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old-fashioned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>initially</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at first</t>
+  </si>
+  <si>
+    <t>at first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismissive</t>
+  </si>
+  <si>
+    <t>不屑一顾的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>little interest.</t>
+  </si>
+  <si>
+    <t>initially</t>
+  </si>
+  <si>
+    <t>keep their brains active.</t>
+  </si>
+  <si>
+    <t>as useful?</t>
+  </si>
+  <si>
+    <t>Should I assume</t>
+  </si>
+  <si>
+    <t> uncertainty</t>
+  </si>
+  <si>
+    <t>particular way </t>
+  </si>
+  <si>
+    <t> provide an example</t>
+  </si>
+  <si>
+    <t>short sentence </t>
+  </si>
+  <si>
+    <t>main point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lacked a conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ended rather abruptly, without rounding it off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abruptly</t>
+  </si>
+  <si>
+    <t>突然地，意外的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> very little </t>
+  </si>
+  <si>
+    <t>not enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">later on </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general information</t>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autistic</t>
+  </si>
+  <si>
+    <t>自闭症的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autism</t>
+  </si>
+  <si>
+    <t>had control of all</t>
+  </si>
+  <si>
+    <t>had a monopoly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t>垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hardly any </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relatively short space of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any time of year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>various types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a range of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washed away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a permanent dye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not long-lasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>little</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>their指代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lizards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> the number of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,6 +1447,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0B78FE"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1137,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1150,6 +1508,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1165,6 +1525,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C64B30A-409C-FBD3-A325-8C1FF6186B7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,11 +1848,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2695,7 +3115,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>253</v>
       </c>
@@ -2704,11 +3124,443 @@
       </c>
       <c r="C81" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" t="s">
+        <v>281</v>
+      </c>
+      <c r="E85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>304</v>
+      </c>
+      <c r="E87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>290</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>294</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>313</v>
+      </c>
+      <c r="B114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>321</v>
+      </c>
+      <c r="B118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>323</v>
+      </c>
+      <c r="B119" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>325</v>
+      </c>
+      <c r="B120" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>326</v>
+      </c>
+      <c r="B121" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C122" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>328</v>
+      </c>
+      <c r="B123" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>331</v>
+      </c>
+      <c r="B125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>333</v>
+      </c>
+      <c r="B126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E592B350-E6C0-4C41-AE7F-F6BD4600FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86388A1-9047-4E0E-BE4A-22E81750BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="432" windowWidth="8160" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="1968" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="372">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,12 +1355,162 @@
     <t>may be</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C13-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same number of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">same amount of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> advantage</t>
+  </si>
+  <si>
+    <t>convenient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get tot the summit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb to the top of a mountan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the storms don't last long.</t>
+  </si>
+  <si>
+    <t>wait until the weather improves.</t>
+  </si>
+  <si>
+    <t>full story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weren’t that conclusive</t>
+  </si>
+  <si>
+    <t>not produce clear results.</t>
+  </si>
+  <si>
+    <r>
+      <t>little research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应without enough consultation</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
+    <t>not compulsory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar function to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> compared to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depended on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3377FF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>税收</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a means of</t>
+  </si>
+  <si>
+    <t>as a form of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,6 +1618,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3377FF"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1556,7 +1712,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C64B30A-409C-FBD3-A325-8C1FF6186B7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1850,10 +2006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3527,6 +3683,201 @@
       </c>
       <c r="B127" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>338</v>
+      </c>
+      <c r="B130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C130" t="s">
+        <v>338</v>
+      </c>
+      <c r="D130" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>340</v>
+      </c>
+      <c r="B131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>343</v>
+      </c>
+      <c r="B133" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>350</v>
+      </c>
+      <c r="B137" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>361</v>
+      </c>
+      <c r="B143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>363</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C144" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>364</v>
+      </c>
+      <c r="B145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>371</v>
+      </c>
+      <c r="B149" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86388A1-9047-4E0E-BE4A-22E81750BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDB038-8632-42AC-B388-DB16DC29B8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1968" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12012" yWindow="3492" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="436">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,12 +1505,287 @@
     <t>sugar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no packed lunch policy即不允许自己带食物</t>
+  </si>
+  <si>
+    <t>C14-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitamins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taken over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（past表示经过，但不跨桥的意思）</t>
+  </si>
+  <si>
+    <t>No, let's go with your last suggestion.</t>
+  </si>
+  <si>
+    <r>
+      <t>precise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a number of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>温度计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telegraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>电报</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employers usually look favourably</t>
+  </si>
+  <si>
+    <t>employment prospects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take the listeners back to their yout</t>
+  </si>
+  <si>
+    <t>remember past times</t>
+  </si>
+  <si>
+    <t> self-esteem.</t>
+  </si>
+  <si>
+    <t>自尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do something themselves</t>
+  </si>
+  <si>
+    <t>independently</t>
+  </si>
+  <si>
+    <t>C14-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra charge</t>
+  </si>
+  <si>
+    <t>additional payment</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>no charge</t>
+  </si>
+  <si>
+    <t>knives and forks</t>
+  </si>
+  <si>
+    <t>cutlery</t>
+  </si>
+  <si>
+    <t>刀叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> join in  dancers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>C14-4-3重做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structures</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>expensive and heavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+  </si>
+  <si>
+    <t>marble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superior </t>
+  </si>
+  <si>
+    <t>better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferior</t>
+  </si>
+  <si>
+    <t>较差的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,6 +1899,12 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1651,7 +1932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1666,6 +1947,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1694,15 +1976,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1203</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>435543</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>140769</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2008,8 +2290,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2063,6 +2345,9 @@
       <c r="J2" t="s">
         <v>101</v>
       </c>
+      <c r="K2" t="s">
+        <v>372</v>
+      </c>
       <c r="N2" t="s">
         <v>155</v>
       </c>
@@ -2092,8 +2377,8 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
-        <v>45545</v>
+      <c r="G3" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="N3" t="s">
         <v>156</v>
@@ -3045,7 +3330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -3055,8 +3340,11 @@
       <c r="C57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -3069,8 +3357,17 @@
       <c r="D58" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" t="s">
+        <v>375</v>
+      </c>
+      <c r="I58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -3080,24 +3377,48 @@
       <c r="C59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H59" t="s">
+        <v>376</v>
+      </c>
+      <c r="I59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>92</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H60" t="s">
+        <v>377</v>
+      </c>
+      <c r="I60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
       <c r="B61" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -3107,21 +3428,41 @@
       <c r="C62" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G64" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G65" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>225</v>
       </c>
@@ -3134,8 +3475,17 @@
       <c r="E66" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H66" t="s">
+        <v>386</v>
+      </c>
+      <c r="I66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3145,8 +3495,14 @@
       <c r="C67" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3156,32 +3512,65 @@
       <c r="C68" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H68" t="s">
+        <v>388</v>
+      </c>
+      <c r="I68" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>229</v>
       </c>
       <c r="B69" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H69" t="s">
+        <v>389</v>
+      </c>
+      <c r="I69" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>231</v>
       </c>
       <c r="B70" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G70" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G71" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H71" t="s">
+        <v>393</v>
+      </c>
+      <c r="I71" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>235</v>
       </c>
@@ -3191,16 +3580,40 @@
       <c r="C72" s="11" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G72" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -3214,15 +3627,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>243</v>
       </c>
@@ -3232,24 +3648,45 @@
       <c r="C76" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H76" t="s">
+        <v>399</v>
+      </c>
+      <c r="I76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="G77" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>250</v>
       </c>
@@ -3259,8 +3696,14 @@
       <c r="C79" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>252</v>
       </c>
@@ -3270,8 +3713,14 @@
       <c r="C80" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>253</v>
       </c>
@@ -3281,13 +3730,19 @@
       <c r="C81" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>255</v>
       </c>
@@ -3303,8 +3758,11 @@
       <c r="E84" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -3320,8 +3778,14 @@
       <c r="E85" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G85" t="s">
+        <v>411</v>
+      </c>
+      <c r="H85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3337,8 +3801,14 @@
       <c r="F86" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G86" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>261</v>
       </c>
@@ -3351,88 +3821,151 @@
       <c r="E87" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B88" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B89" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G89" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G90" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G91" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G92" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G93" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G94" t="s">
+        <v>429</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="G95" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H95" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="G96" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H96" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="G97" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H97" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -3440,7 +3973,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -3451,7 +3984,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>288</v>
       </c>
@@ -3459,7 +3992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -3470,7 +4003,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -3481,7 +4014,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>292</v>
       </c>
@@ -3489,7 +4022,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>294</v>
       </c>
@@ -3500,7 +4033,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>295</v>
       </c>
@@ -3508,7 +4041,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>298</v>
       </c>
@@ -3516,7 +4049,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>303</v>
       </c>
@@ -3524,12 +4057,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>307</v>
       </c>
@@ -3537,7 +4070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -3545,7 +4078,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -3895,14 +4428,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
+                <xdr:colOff>434340</xdr:colOff>
                 <xdr:row>87</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDB038-8632-42AC-B388-DB16DC29B8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B919C-EC91-40B7-B591-2D20C4BDEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12012" yWindow="3492" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8604" yWindow="1440" windowWidth="8676" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="667">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1780,12 +1780,900 @@
     <t>较差的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C15-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almost any other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> provides </t>
+  </si>
+  <si>
+    <t>give</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>used to be</t>
+  </si>
+  <si>
+    <t>world revolves around them</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>construction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>making</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>have to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health benefits</t>
+  </si>
+  <si>
+    <t>active lifestyle</t>
+  </si>
+  <si>
+    <t> unpleasant when it's cold and windy</t>
+  </si>
+  <si>
+    <t>difficult weather conditions at times</t>
+  </si>
+  <si>
+    <t>pretty remote areas</t>
+  </si>
+  <si>
+    <t>quiet location</t>
+  </si>
+  <si>
+    <t>intensive work</t>
+  </si>
+  <si>
+    <t>work hard</t>
+  </si>
+  <si>
+    <t>rapid promotion</t>
+  </si>
+  <si>
+    <t>way up the career ladder</t>
+  </si>
+  <si>
+    <t> available for a 12-month maternity cover contract</t>
+  </si>
+  <si>
+    <t>not a permanent job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cottage </t>
+  </si>
+  <si>
+    <t>小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> small cottage on the estate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> estate</t>
+  </si>
+  <si>
+    <t>庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> so many people doing</t>
+  </si>
+  <si>
+    <t> large sample</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>碾磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> ground up</t>
+  </si>
+  <si>
+    <r>
+      <t>confusing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应hard to understand</t>
+  </si>
+  <si>
+    <t>minor modifications</t>
+  </si>
+  <si>
+    <t>practical changes</t>
+  </si>
+  <si>
+    <r>
+      <t>someone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>many parts of the world</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>geographical areas</t>
+  </si>
+  <si>
+    <t>C15-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the review was very good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a good review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance performances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dance showes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">creating </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>making</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凿子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharp chisels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste land</t>
+  </si>
+  <si>
+    <t>shared area</t>
+  </si>
+  <si>
+    <t>local community</t>
+  </si>
+  <si>
+    <t>people living nearby</t>
+  </si>
+  <si>
+    <t>lead a campaign</t>
+  </si>
+  <si>
+    <t>organized petitions and demonstrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>get going</t>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heard of him</t>
+  </si>
+  <si>
+    <t>well-known</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awful conditions</t>
+  </si>
+  <si>
+    <t>social problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for making them.</t>
+  </si>
+  <si>
+    <t>for the fences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>techniques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>been up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">first </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the moment</t>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostly parents but some elderly residents too</t>
+  </si>
+  <si>
+    <t>local wardens</t>
+  </si>
+  <si>
+    <t> under 20 kilometres</t>
+  </si>
+  <si>
+    <t> very slowly.</t>
+  </si>
+  <si>
+    <t> having a big extended family</t>
+  </si>
+  <si>
+    <t>be part of a community</t>
+  </si>
+  <si>
+    <t>sales in the shops went u</t>
+  </si>
+  <si>
+    <t>more shoppers</t>
+  </si>
+  <si>
+    <t>graphics </t>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>著名的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assumptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash off</t>
+  </si>
+  <si>
+    <t>rinsed off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗涤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made of clay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material in clay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made of</t>
+  </si>
+  <si>
+    <t>a metal instrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>outbreaks</t>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
+    <t>for the first time</t>
+  </si>
+  <si>
+    <t>began</t>
+  </si>
+  <si>
+    <t>turning salt into soda ash</t>
+  </si>
+  <si>
+    <t>soda ash from salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>became</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no longer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give to passengers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platforms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoped to extend this to the weekend</t>
+  </si>
+  <si>
+    <t>closed at weekends</t>
+  </si>
+  <si>
+    <t>didn't melt for months</t>
+  </si>
+  <si>
+    <t>s kept frozen</t>
+  </si>
+  <si>
+    <t>disposed of irresponsibly.</t>
+  </si>
+  <si>
+    <t>不负责的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump old fridges in the countryside.</t>
+  </si>
+  <si>
+    <t> not expensive</t>
+  </si>
+  <si>
+    <t> good value for money.</t>
+  </si>
+  <si>
+    <t>the country</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>larger</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>persuasive</t>
+  </si>
+  <si>
+    <t>说服，雄辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wednesdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>janunary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>februnary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>march</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>april</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>july</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>augest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>september</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octorber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>november</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decenber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vague.</t>
+  </si>
+  <si>
+    <t>含糊的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less specific</t>
+  </si>
+  <si>
+    <t>impression of rapid motion</t>
+  </si>
+  <si>
+    <t>fast movement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambiguous </t>
+  </si>
+  <si>
+    <t>confused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>never-ending cycle</t>
+  </si>
+  <si>
+    <t>continuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appealing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider as</t>
+  </si>
+  <si>
+    <t>see as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>organised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capitalism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a lot of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandparents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragile,</t>
+  </si>
+  <si>
+    <t>易碎的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correctly</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>brought from home</t>
+  </si>
+  <si>
+    <t>take into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve a different country’s cuisine each day</t>
+  </si>
+  <si>
+    <t>daily change</t>
+  </si>
+  <si>
+    <t>coincidence</t>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>not put unnecessary</t>
+  </si>
+  <si>
+    <t>more quickly</t>
+  </si>
+  <si>
+    <t>faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>uses up</t>
+  </si>
+  <si>
+    <t>burns</t>
+  </si>
+  <si>
+    <t>suffer from</t>
+  </si>
+  <si>
+    <t>obesity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made it a habit</t>
+  </si>
+  <si>
+    <t>became a habit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1905,8 +2793,15 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1916,6 +2811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,7 +2833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1948,6 +2849,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1976,15 +2879,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1203</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:colOff>14151</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>140426</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>435543</xdr:colOff>
-          <xdr:row>87</xdr:row>
-          <xdr:rowOff>140769</xdr:rowOff>
+          <xdr:colOff>174171</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>96883</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2288,16 +3191,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S149"/>
+  <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2734,7 +3638,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2751,7 +3655,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2771,7 +3675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +3689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2799,7 +3703,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2816,7 +3720,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +3737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2847,7 +3751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2863,8 +3767,17 @@
       <c r="J24" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>602</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2883,8 +3796,17 @@
       <c r="J25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>603</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -2897,8 +3819,17 @@
       <c r="H26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>604</v>
+      </c>
+      <c r="P26" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2911,8 +3842,17 @@
       <c r="I27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="P27" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2928,8 +3868,17 @@
       <c r="I28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>605</v>
+      </c>
+      <c r="P28" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2942,8 +3891,17 @@
       <c r="H29" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>606</v>
+      </c>
+      <c r="P29" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2956,8 +3914,17 @@
       <c r="G30" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>607</v>
+      </c>
+      <c r="P30" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2979,8 +3946,14 @@
       <c r="J31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="P31" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2996,8 +3969,14 @@
       <c r="I32" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="P32" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3010,8 +3989,14 @@
       <c r="H33" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="P33" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3027,8 +4012,14 @@
       <c r="H34" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="P34" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="G35" s="2" t="s">
         <v>150</v>
       </c>
@@ -3038,13 +4029,19 @@
       <c r="J35" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P35" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.4500000000000002</v>
       </c>
@@ -3055,7 +4052,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3066,7 +4063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3089,7 +4086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3106,7 +4103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3117,7 +4114,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +4125,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +4142,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3162,7 +4159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -3173,7 +4170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -3187,7 +4184,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3201,7 +4198,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3951,7 +4948,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>283</v>
       </c>
@@ -3965,7 +4962,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -3973,7 +4970,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>287</v>
       </c>
@@ -3983,16 +4980,28 @@
       <c r="C99" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>437</v>
+      </c>
+      <c r="H100" t="s">
+        <v>437</v>
+      </c>
+      <c r="I100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -4002,8 +5011,17 @@
       <c r="C101" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>438</v>
+      </c>
+      <c r="H101" t="s">
+        <v>438</v>
+      </c>
+      <c r="I101" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -4013,16 +5031,28 @@
       <c r="C102" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>439</v>
+      </c>
+      <c r="H102" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>292</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>441</v>
+      </c>
+      <c r="H103" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>294</v>
       </c>
@@ -4032,53 +5062,109 @@
       <c r="C104" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G104" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H104" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>295</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G105" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>298</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G106" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>303</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>449</v>
+      </c>
+      <c r="H107" t="s">
+        <v>449</v>
+      </c>
+      <c r="I107" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G108" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H108" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H109" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>307</v>
       </c>
       <c r="B110" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H110" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>309</v>
       </c>
       <c r="B111" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H111" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>311</v>
       </c>
@@ -4088,8 +5174,17 @@
       <c r="C112" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G112" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H112" t="s">
+        <v>457</v>
+      </c>
+      <c r="I112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>312</v>
       </c>
@@ -4100,63 +5195,111 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>313</v>
       </c>
       <c r="B114" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G114" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>315</v>
       </c>
       <c r="B115" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G115" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H115" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>319</v>
       </c>
       <c r="B116" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G116" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H116" t="s">
+        <v>461</v>
+      </c>
+      <c r="I116" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>317</v>
       </c>
       <c r="B117" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G117" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H117" t="s">
+        <v>462</v>
+      </c>
+      <c r="I117" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>321</v>
       </c>
       <c r="B118" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G118" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H118" t="s">
+        <v>463</v>
+      </c>
+      <c r="I118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>323</v>
       </c>
       <c r="B119" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G119" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>325</v>
       </c>
       <c r="B120" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G120" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>326</v>
       </c>
@@ -4166,8 +5309,14 @@
       <c r="C121" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G121" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>327</v>
       </c>
@@ -4177,53 +5326,118 @@
       <c r="C122" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G122" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>328</v>
       </c>
       <c r="B123" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G123" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>307</v>
       </c>
       <c r="B124" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H124" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>331</v>
       </c>
       <c r="B125" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>476</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I125" t="s">
+        <v>477</v>
+      </c>
+      <c r="J125" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>333</v>
       </c>
       <c r="B126" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G126" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="I126" t="s">
+        <v>480</v>
+      </c>
+      <c r="J126" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>335</v>
       </c>
       <c r="B127" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>484</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I127" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G128" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G129" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>338</v>
       </c>
@@ -4236,8 +5450,14 @@
       <c r="D130" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G130" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H130" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>340</v>
       </c>
@@ -4247,16 +5467,31 @@
       <c r="C131" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G131" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H131" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B132" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G132" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>343</v>
       </c>
@@ -4266,16 +5501,34 @@
       <c r="C133" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G133" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H133" t="s">
+        <v>496</v>
+      </c>
+      <c r="I133" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B134" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G134" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>346</v>
       </c>
@@ -4283,47 +5536,80 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G136" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>350</v>
       </c>
       <c r="B137" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G137" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H137" t="s">
+        <v>502</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K137" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G138" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H138" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B139" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G139" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H139" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>356</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G140" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H140" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>358</v>
       </c>
@@ -4333,24 +5619,45 @@
       <c r="C141" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G141" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H141" t="s">
+        <v>511</v>
+      </c>
+      <c r="I141" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>359</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G142" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>361</v>
       </c>
       <c r="B143" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G143" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>363</v>
       </c>
@@ -4360,16 +5667,28 @@
       <c r="C144" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G144" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>364</v>
       </c>
       <c r="B145" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G145" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>366</v>
       </c>
@@ -4379,8 +5698,14 @@
       <c r="C146" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G146" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>367</v>
       </c>
@@ -4393,16 +5718,28 @@
       <c r="D147" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="G147" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B148" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>371</v>
       </c>
@@ -4411,6 +5748,546 @@
       </c>
       <c r="C149" t="s">
         <v>371</v>
+      </c>
+      <c r="G149" t="s">
+        <v>526</v>
+      </c>
+      <c r="H149" t="s">
+        <v>526</v>
+      </c>
+      <c r="I149" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="G150" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>574</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>575</v>
+      </c>
+      <c r="B152" t="s">
+        <v>576</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>577</v>
+      </c>
+      <c r="B153" t="s">
+        <v>577</v>
+      </c>
+      <c r="C153" t="s">
+        <v>577</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>578</v>
+      </c>
+      <c r="B154" t="s">
+        <v>578</v>
+      </c>
+      <c r="C154" t="s">
+        <v>578</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C157" t="s">
+        <v>584</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H158" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H159" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>592</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C161" t="s">
+        <v>592</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G164" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G165" t="s">
+        <v>554</v>
+      </c>
+      <c r="H165" t="s">
+        <v>554</v>
+      </c>
+      <c r="I165" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B166" t="s">
+        <v>599</v>
+      </c>
+      <c r="C166" t="s">
+        <v>599</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="I166" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B167" t="s">
+        <v>600</v>
+      </c>
+      <c r="C167" t="s">
+        <v>600</v>
+      </c>
+      <c r="G167" t="s">
+        <v>558</v>
+      </c>
+      <c r="H167" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C169" t="s">
+        <v>622</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I169" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B170" t="s">
+        <v>625</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B171" t="s">
+        <v>627</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B172" t="s">
+        <v>629</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B173" t="s">
+        <v>631</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B175" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B176" t="s">
+        <v>636</v>
+      </c>
+      <c r="C176" t="s">
+        <v>636</v>
+      </c>
+      <c r="D176" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B177" t="s">
+        <v>639</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G178" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H178" t="s">
+        <v>641</v>
+      </c>
+      <c r="I178" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G179" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J179" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G180" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="H180" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G181" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G182" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="H182" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G183" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I183" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G184" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G185" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G186" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G187" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G188" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H188" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G189" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G190" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G191" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4427,15 +6304,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>434340</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:colOff>175260</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B919C-EC91-40B7-B591-2D20C4BDEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C5503-BBE4-4E14-B025-ABF6EF1513AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8604" yWindow="1440" windowWidth="8676" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4932" yWindow="1152" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="834">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2668,12 +2668,646 @@
     <t>became a habit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t> someone</t>
+  </si>
+  <si>
+    <t>对应某个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandmother</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> can be helpfu</t>
+  </si>
+  <si>
+    <t>gives support</t>
+  </si>
+  <si>
+    <t>hardship.</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>looking after</t>
+  </si>
+  <si>
+    <t>watching over</t>
+  </si>
+  <si>
+    <t>C17-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> the beach free of litter.</t>
+  </si>
+  <si>
+    <t>not have litter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butterfly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butterly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacing</t>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginners</t>
+  </si>
+  <si>
+    <t>light green exterior</t>
+  </si>
+  <si>
+    <t> to protect sailors</t>
+  </si>
+  <si>
+    <t> why it was built</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find your way</t>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carved </t>
+  </si>
+  <si>
+    <t>carvings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breathing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> paper finger labyrinth'</t>
+  </si>
+  <si>
+    <t>made from paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relief from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breeds of animals</t>
+  </si>
+  <si>
+    <t>types of cattle and sheep</t>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardly ever found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>buy gifts</t>
+  </si>
+  <si>
+    <t>well the director handled important bits of the play</t>
+  </si>
+  <si>
+    <t>particular scenes</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>极好的，大吃一惊的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stunning、most memorable</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teenagers and their parents</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>intensified the emotion</t>
+  </si>
+  <si>
+    <t> moving.</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>interpreted</t>
+  </si>
+  <si>
+    <t>find new angles</t>
+  </si>
+  <si>
+    <t>many ways</t>
+  </si>
+  <si>
+    <t>becoming...quickly</t>
+  </si>
+  <si>
+    <t>promote，</t>
+  </si>
+  <si>
+    <t>bilingual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>entirely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events will start</t>
+  </si>
+  <si>
+    <t>starting at 2.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traditional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not ballet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history of the town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base on a crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>C17-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not fate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usually doesn't</t>
+  </si>
+  <si>
+    <t>听成 did了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>half that number for the breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More children attend after school than before </t>
+  </si>
+  <si>
+    <t>an extra charge</t>
+  </si>
+  <si>
+    <t>additional fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parental support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help from parents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> calm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3377FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷静</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panic 恐慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressue 压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiding yor emotions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feathers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar in shape,</t>
+  </si>
+  <si>
+    <t>similar shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate to the moon</t>
+  </si>
+  <si>
+    <t>fly to the moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the long spear in its neck</t>
+  </si>
+  <si>
+    <t>spear in its neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first evidence</t>
+  </si>
+  <si>
+    <t>previously had no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>little information</t>
+  </si>
+  <si>
+    <t> Little was known</t>
+  </si>
+  <si>
+    <t>oceans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> is known as</t>
+  </si>
+  <si>
+    <t> is called the</t>
+  </si>
+  <si>
+    <t>atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>printed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just by the market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near the market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>electrician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergo a security check</t>
+  </si>
+  <si>
+    <t>check carried out by</t>
+  </si>
+  <si>
+    <t>police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> cover some duties</t>
+  </si>
+  <si>
+    <t>morale</t>
+  </si>
+  <si>
+    <t>斗志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> fairly,</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t> introduced a management programm</t>
+  </si>
+  <si>
+    <t>provide career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-operative</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they thought I was brilliant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellow students admired him.</t>
+  </si>
+  <si>
+    <t>disbelief</t>
+  </si>
+  <si>
+    <t>can't be happening</t>
+  </si>
+  <si>
+    <t>booed</t>
+  </si>
+  <si>
+    <t>unpopular</t>
+  </si>
+  <si>
+    <r>
+      <t>jeered (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘲弄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people watching</t>
+  </si>
+  <si>
+    <t>spectators</t>
+  </si>
+  <si>
+    <t>ended up with wet hair</t>
+  </si>
+  <si>
+    <t>cause excessive sweating</t>
+  </si>
+  <si>
+    <t>climate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>diameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a fire is built and the pans are then heated</t>
+  </si>
+  <si>
+    <t>are heated by means of a boil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>litre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3377FF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>公升</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2800,6 +3434,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3377FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0B78FE"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2833,7 +3481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2851,6 +3499,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2872,6 +3524,10 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2879,15 +3535,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>14151</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>140426</xdr:rowOff>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>174171</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>96883</xdr:rowOff>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2898,6 +3554,56 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>202</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>203</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3191,10 +3897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S191"/>
+  <dimension ref="A1:X230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView tabSelected="1" topLeftCell="D223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K227" sqref="K227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3910,7 @@
     <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +3929,11 @@
       <c r="S1" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3267,8 +3976,17 @@
       <c r="S2" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="V2" t="s">
+        <v>735</v>
+      </c>
+      <c r="W2" t="s">
+        <v>735</v>
+      </c>
+      <c r="X2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3299,8 +4017,11 @@
       <c r="S3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3334,8 +4055,14 @@
       <c r="S4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V4" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="W4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3363,8 +4090,14 @@
       <c r="S5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>740</v>
+      </c>
+      <c r="W5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3392,8 +4125,11 @@
       <c r="S6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3427,8 +4163,17 @@
       <c r="S7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="V7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" t="s">
+        <v>743</v>
+      </c>
+      <c r="X7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3456,8 +4201,17 @@
       <c r="S8" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>745</v>
+      </c>
+      <c r="W8" t="s">
+        <v>746</v>
+      </c>
+      <c r="X8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3479,8 +4233,11 @@
       <c r="S9" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="V9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3508,8 +4265,17 @@
       <c r="S10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="V10" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3534,8 +4300,11 @@
       <c r="S11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3566,8 +4335,14 @@
       <c r="S12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V12" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3580,8 +4355,17 @@
       <c r="I13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>788</v>
+      </c>
+      <c r="W13" t="s">
+        <v>788</v>
+      </c>
+      <c r="X13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3600,8 +4384,14 @@
       <c r="J14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>789</v>
+      </c>
+      <c r="W14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3618,7 +4408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5184,7 +5974,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>312</v>
       </c>
@@ -5195,7 +5985,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>313</v>
       </c>
@@ -5206,7 +5996,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>315</v>
       </c>
@@ -5219,8 +6009,17 @@
       <c r="H115" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K115" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="L115" t="s">
+        <v>668</v>
+      </c>
+      <c r="M115" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>319</v>
       </c>
@@ -5236,8 +6035,14 @@
       <c r="I116" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K116" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>317</v>
       </c>
@@ -5253,8 +6058,14 @@
       <c r="I117" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="K117" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>321</v>
       </c>
@@ -5270,8 +6081,14 @@
       <c r="I118" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>323</v>
       </c>
@@ -5285,7 +6102,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>325</v>
       </c>
@@ -5299,7 +6116,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>326</v>
       </c>
@@ -5316,7 +6133,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>327</v>
       </c>
@@ -5333,7 +6150,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>328</v>
       </c>
@@ -5347,7 +6164,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>307</v>
       </c>
@@ -5361,7 +6178,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>331</v>
       </c>
@@ -5381,7 +6198,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>333</v>
       </c>
@@ -5401,7 +6218,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>335</v>
       </c>
@@ -5418,7 +6235,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="G128" s="2" t="s">
         <v>487</v>
       </c>
@@ -6178,6 +6995,9 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="G179" s="2" t="s">
         <v>644</v>
       </c>
@@ -6192,6 +7012,12 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B180" t="s">
+        <v>678</v>
+      </c>
       <c r="G180" s="8" t="s">
         <v>646</v>
       </c>
@@ -6200,6 +7026,12 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>679</v>
+      </c>
+      <c r="B181" t="s">
+        <v>680</v>
+      </c>
       <c r="G181" s="2" t="s">
         <v>648</v>
       </c>
@@ -6208,6 +7040,15 @@
       </c>
     </row>
     <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>681</v>
+      </c>
+      <c r="B182" t="s">
+        <v>681</v>
+      </c>
+      <c r="C182" t="s">
+        <v>682</v>
+      </c>
       <c r="G182" s="8" t="s">
         <v>650</v>
       </c>
@@ -6216,6 +7057,12 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B183" t="s">
+        <v>684</v>
+      </c>
       <c r="G183" s="2" t="s">
         <v>652</v>
       </c>
@@ -6227,6 +7074,12 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>685</v>
+      </c>
+      <c r="B184" t="s">
+        <v>686</v>
+      </c>
       <c r="G184" s="2" t="s">
         <v>653</v>
       </c>
@@ -6235,6 +7088,15 @@
       </c>
     </row>
     <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>687</v>
+      </c>
+      <c r="B185" t="s">
+        <v>687</v>
+      </c>
+      <c r="C185" t="s">
+        <v>687</v>
+      </c>
       <c r="G185" s="2" t="s">
         <v>655</v>
       </c>
@@ -6243,6 +7105,15 @@
       </c>
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>688</v>
+      </c>
+      <c r="B186" t="s">
+        <v>688</v>
+      </c>
+      <c r="C186" t="s">
+        <v>688</v>
+      </c>
       <c r="G186" s="2" t="s">
         <v>657</v>
       </c>
@@ -6251,6 +7122,9 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="G187" s="2" t="s">
         <v>659</v>
       </c>
@@ -6259,6 +7133,12 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>691</v>
+      </c>
       <c r="G188" s="2" t="s">
         <v>660</v>
       </c>
@@ -6267,6 +7147,15 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>692</v>
+      </c>
+      <c r="B189" t="s">
+        <v>692</v>
+      </c>
+      <c r="C189" t="s">
+        <v>692</v>
+      </c>
       <c r="G189" s="2" t="s">
         <v>661</v>
       </c>
@@ -6275,6 +7164,12 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>694</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="G190" s="2" t="s">
         <v>663</v>
       </c>
@@ -6283,11 +7178,521 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B191" t="s">
+        <v>696</v>
+      </c>
       <c r="G191" s="1" t="s">
         <v>665</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>697</v>
+      </c>
+      <c r="B192" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B193" t="s">
+        <v>699</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>700</v>
+      </c>
+      <c r="B194" t="s">
+        <v>701</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G195" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="H195" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>749</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H196" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>750</v>
+      </c>
+      <c r="B197" t="s">
+        <v>751</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>752</v>
+      </c>
+      <c r="B198" t="s">
+        <v>752</v>
+      </c>
+      <c r="C198" t="s">
+        <v>753</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>754</v>
+      </c>
+      <c r="B199" t="s">
+        <v>754</v>
+      </c>
+      <c r="C199" t="s">
+        <v>754</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H199" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B200" t="s">
+        <v>756</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>757</v>
+      </c>
+      <c r="B201" t="s">
+        <v>757</v>
+      </c>
+      <c r="C201" t="s">
+        <v>757</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="H201" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A203" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B203" t="s">
+        <v>761</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>762</v>
+      </c>
+      <c r="B204" t="s">
+        <v>763</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B205" t="s">
+        <v>765</v>
+      </c>
+      <c r="C205" t="s">
+        <v>766</v>
+      </c>
+      <c r="D205" t="s">
+        <v>767</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>768</v>
+      </c>
+      <c r="B206" t="s">
+        <v>768</v>
+      </c>
+      <c r="C206" t="s">
+        <v>768</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B207" t="s">
+        <v>770</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A208" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B208" t="s">
+        <v>772</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B209" t="s">
+        <v>774</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B210" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>777</v>
+      </c>
+      <c r="B211" t="s">
+        <v>777</v>
+      </c>
+      <c r="C211" t="s">
+        <v>777</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="I212" t="s">
+        <v>794</v>
+      </c>
+      <c r="J212" t="s">
+        <v>795</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="L212" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>780</v>
+      </c>
+      <c r="B213" t="s">
+        <v>780</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I213" t="s">
+        <v>796</v>
+      </c>
+      <c r="J213" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A214" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>783</v>
+      </c>
+      <c r="B215" t="s">
+        <v>783</v>
+      </c>
+      <c r="C215" t="s">
+        <v>783</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G217" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G218" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G219" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G220" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G221" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G222" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G223" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="G224" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="225" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G225" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="226" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G226" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="227" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G227" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="I227" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="228" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G228" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="H228" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="I228" t="s">
+        <v>828</v>
+      </c>
+      <c r="J228" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="229" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G229" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="230" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G230" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -6305,14 +7710,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>91440</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>175260</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6322,6 +7727,31 @@
         <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>202</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>203</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C5503-BBE4-4E14-B025-ABF6EF1513AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91837D70-5E4B-472C-9156-621EEBB54DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="1152" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="528" yWindow="1416" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="924">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3300,6 +3300,324 @@
       </rPr>
       <t>公升</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C18-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knock down</t>
+  </si>
+  <si>
+    <t>damage to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fences </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helicopters</t>
+  </si>
+  <si>
+    <t>park staff</t>
+  </si>
+  <si>
+    <t>park rangers</t>
+  </si>
+  <si>
+    <t>a huge success</t>
+  </si>
+  <si>
+    <t>advantage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedication</t>
+  </si>
+  <si>
+    <t>commitment</t>
+  </si>
+  <si>
+    <t>奉献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imaginative or novel</t>
+  </si>
+  <si>
+    <t>new ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> know something about nutrition</t>
+  </si>
+  <si>
+    <t>understanding food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theatrical side</t>
+  </si>
+  <si>
+    <t>experience on stage</t>
+  </si>
+  <si>
+    <t>not forget</t>
+  </si>
+  <si>
+    <t>good memory”</t>
+  </si>
+  <si>
+    <t>C19-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溪流（听成了spring）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focuses on </t>
+  </si>
+  <si>
+    <t>concentrates on</t>
+  </si>
+  <si>
+    <t>visitors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom</t>
+  </si>
+  <si>
+    <t>made record profits</t>
+  </si>
+  <si>
+    <t> most funds</t>
+  </si>
+  <si>
+    <t>great feeling</t>
+  </si>
+  <si>
+    <t>most satisfying</t>
+  </si>
+  <si>
+    <t>but drug/hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> full of imported foods</t>
+  </si>
+  <si>
+    <t>encouage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stricter regulations</t>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多人买这种食物，对应widespread</t>
+  </si>
+  <si>
+    <t> don't realise</t>
+  </si>
+  <si>
+    <t>know little</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>听成了worse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>served</t>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less productive</t>
+  </si>
+  <si>
+    <t>decline in quality</t>
+  </si>
+  <si>
+    <t> a lot more </t>
+  </si>
+  <si>
+    <t>an increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C18-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning the equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment is clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four weeks</t>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy access to local facilities</t>
+  </si>
+  <si>
+    <t>close hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goes right up</t>
+  </si>
+  <si>
+    <t>直行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tailor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not nearly as</t>
+  </si>
+  <si>
+    <t>beneath</t>
+  </si>
+  <si>
+    <t>under</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>detracted</t>
+  </si>
+  <si>
+    <t>negative effect</t>
+  </si>
+  <si>
+    <t>came into fashion</t>
+  </si>
+  <si>
+    <t>became popular</t>
+  </si>
+  <si>
+    <t>trying to make sense</t>
+  </si>
+  <si>
+    <t>not led to formal study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profound effect</t>
+  </si>
+  <si>
+    <t>impacted</t>
+  </si>
+  <si>
+    <t>contradictions </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>矛盾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> many weather stations </t>
+  </si>
+  <si>
+    <t>number of places </t>
+  </si>
+  <si>
+    <t>headaches,</t>
+  </si>
+  <si>
+    <t>health issues</t>
+  </si>
+  <si>
+    <t>before anyone else.</t>
+  </si>
+  <si>
+    <t>first to identify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> livestock </t>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牲畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under the age of 25.</t>
+  </si>
+  <si>
+    <t>young</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3481,7 +3799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3503,6 +3821,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3535,15 +3854,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:colOff>21771</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>128451</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:colOff>425631</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>187234</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3585,15 +3904,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>202</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>4354</xdr:colOff>
+          <xdr:row>196</xdr:row>
+          <xdr:rowOff>116477</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>203</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:colOff>408214</xdr:colOff>
+          <xdr:row>198</xdr:row>
+          <xdr:rowOff>154577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3897,10 +4216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X230"/>
+  <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView tabSelected="1" topLeftCell="E245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7571,6 +7890,9 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>834</v>
+      </c>
       <c r="G218" s="8" t="s">
         <v>804</v>
       </c>
@@ -7582,6 +7904,12 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B219" t="s">
+        <v>836</v>
+      </c>
       <c r="G219" s="1" t="s">
         <v>809</v>
       </c>
@@ -7590,6 +7918,18 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>837</v>
+      </c>
+      <c r="B220" t="s">
+        <v>838</v>
+      </c>
+      <c r="C220" t="s">
+        <v>837</v>
+      </c>
+      <c r="D220" t="s">
+        <v>839</v>
+      </c>
       <c r="G220" s="1" t="s">
         <v>811</v>
       </c>
@@ -7598,6 +7938,15 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>840</v>
+      </c>
       <c r="G221" s="8" t="s">
         <v>813</v>
       </c>
@@ -7606,6 +7955,12 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="G222" s="8" t="s">
         <v>815</v>
       </c>
@@ -7614,6 +7969,12 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B223" t="s">
+        <v>844</v>
+      </c>
       <c r="G223" s="8" t="s">
         <v>817</v>
       </c>
@@ -7622,6 +7983,15 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A224" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C224" t="s">
+        <v>847</v>
+      </c>
       <c r="G224" s="2" t="s">
         <v>819</v>
       </c>
@@ -7632,7 +8002,13 @@
         <v>820</v>
       </c>
     </row>
-    <row r="225" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B225" t="s">
+        <v>849</v>
+      </c>
       <c r="G225" s="2" t="s">
         <v>822</v>
       </c>
@@ -7640,7 +8016,13 @@
         <v>823</v>
       </c>
     </row>
-    <row r="226" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B226" t="s">
+        <v>851</v>
+      </c>
       <c r="G226" s="2" t="s">
         <v>824</v>
       </c>
@@ -7648,7 +8030,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="227" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>853</v>
+      </c>
       <c r="G227" s="2" t="s">
         <v>826</v>
       </c>
@@ -7659,7 +8047,13 @@
         <v>826</v>
       </c>
     </row>
-    <row r="228" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="G228" s="18" t="s">
         <v>827</v>
       </c>
@@ -7673,7 +8067,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="229" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="G229" s="8" t="s">
         <v>830</v>
       </c>
@@ -7681,7 +8075,10 @@
         <v>831</v>
       </c>
     </row>
-    <row r="230" spans="7:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="G230" s="1" t="s">
         <v>832</v>
       </c>
@@ -7693,6 +8090,293 @@
       </c>
       <c r="J230" s="1" t="s">
         <v>833</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B231" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="G232" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G233" t="s">
+        <v>887</v>
+      </c>
+      <c r="H233" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G234" t="s">
+        <v>889</v>
+      </c>
+      <c r="H234" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="G235" t="s">
+        <v>891</v>
+      </c>
+      <c r="H235" t="s">
+        <v>891</v>
+      </c>
+      <c r="I235" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="H236" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>867</v>
+      </c>
+      <c r="B237" t="s">
+        <v>868</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B238" t="s">
+        <v>870</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="H238" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>872</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="G239" t="s">
+        <v>898</v>
+      </c>
+      <c r="H239" t="s">
+        <v>898</v>
+      </c>
+      <c r="I239" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="B241" t="s">
+        <v>875</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H241" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>878</v>
+      </c>
+      <c r="B243" t="s">
+        <v>878</v>
+      </c>
+      <c r="C243" t="s">
+        <v>878</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B244" t="s">
+        <v>880</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>881</v>
+      </c>
+      <c r="B245" t="s">
+        <v>881</v>
+      </c>
+      <c r="C245" t="s">
+        <v>881</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B247" t="s">
+        <v>885</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G248" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G249" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G250" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G251" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="I251" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G252" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -7709,15 +8393,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>91440</xdr:rowOff>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>129540</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
+                <xdr:colOff>426720</xdr:colOff>
                 <xdr:row>79</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -7734,15 +8418,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>202</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>196</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>203</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>198</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91837D70-5E4B-472C-9156-621EEBB54DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3271A0-F8BC-4B10-BEDB-BC985CBF9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="1416" windowWidth="10476" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1176" windowWidth="11124" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="973">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3620,12 +3620,206 @@
     <t>young</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C19-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keeping对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starts clapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without panicking</t>
+  </si>
+  <si>
+    <t>mental strength.</t>
+  </si>
+  <si>
+    <r>
+      <t>brief</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333643"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（简要的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not a lot on </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get experience </t>
+  </si>
+  <si>
+    <t>provided practice</t>
+  </si>
+  <si>
+    <t>colder months</t>
+  </si>
+  <si>
+    <t>n winter</t>
+  </si>
+  <si>
+    <t> don't look great </t>
+  </si>
+  <si>
+    <t>no  likes them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not make sense</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>discs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF0B78FE"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>磁盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaweed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>harbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>called = know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hearing impaired.</t>
+  </si>
+  <si>
+    <t>disability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">metal health </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unhappy feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> gold medal</t>
+  </si>
+  <si>
+    <t>prize-winning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>won't have heard</t>
+  </si>
+  <si>
+    <t>well known.</t>
+  </si>
+  <si>
+    <t>serious issue</t>
+  </si>
+  <si>
+    <t>important topic.</t>
+  </si>
+  <si>
+    <t> cereal </t>
+  </si>
+  <si>
+    <t>谷物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressing</t>
+  </si>
+  <si>
+    <t>lack interest</t>
+  </si>
+  <si>
+    <t>damaging their mouths</t>
+  </si>
+  <si>
+    <t>injuries to the mouths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothpaste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix nutrients into it</t>
+  </si>
+  <si>
+    <t>add nutrients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficult to obtain the data</t>
+  </si>
+  <si>
+    <t>not easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3766,6 +3960,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF0B78FE"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3854,15 +4062,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>21771</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>128451</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>425631</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>187234</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3904,15 +4112,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>4354</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>196</xdr:row>
-          <xdr:rowOff>116477</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>408214</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>198</xdr:row>
-          <xdr:rowOff>154577</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4216,10 +4424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X252"/>
+  <dimension ref="A1:X268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8345,6 +8553,9 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>924</v>
+      </c>
       <c r="G249" s="1" t="s">
         <v>915</v>
       </c>
@@ -8353,6 +8564,15 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>925</v>
+      </c>
+      <c r="B250" t="s">
+        <v>925</v>
+      </c>
+      <c r="C250" t="s">
+        <v>925</v>
+      </c>
       <c r="G250" s="8" t="s">
         <v>917</v>
       </c>
@@ -8361,6 +8581,12 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>926</v>
+      </c>
+      <c r="B251" t="s">
+        <v>927</v>
+      </c>
       <c r="G251" s="1" t="s">
         <v>919</v>
       </c>
@@ -8372,11 +8598,214 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>929</v>
+      </c>
       <c r="G252" s="1" t="s">
         <v>922</v>
       </c>
       <c r="H252" s="8" t="s">
         <v>923</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A253" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B253" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="G255" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="I255" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A258" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H258" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="C259" t="s">
+        <v>942</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H259" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B260" t="s">
+        <v>943</v>
+      </c>
+      <c r="C260" t="s">
+        <v>943</v>
+      </c>
+      <c r="F260">
+        <v>7</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="H260" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="F262">
+        <v>6</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G263" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H263" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G264" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G265" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G266" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H266" t="s">
+        <v>968</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G267" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="H267" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G268" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="H268" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -8399,8 +8828,8 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>426720</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:colOff>251460</xdr:colOff>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -8414,7 +8843,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -8424,9 +8853,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
+                <xdr:colOff>236220</xdr:colOff>
                 <xdr:row>198</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/listening/错题.xlsx
+++ b/listening/错题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3271A0-F8BC-4B10-BEDB-BC985CBF9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD773F-3EEF-4821-8542-956C5804B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1176" windowWidth="11124" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="974">
   <si>
     <t>C12-5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3812,6 +3812,10 @@
   </si>
   <si>
     <t>not easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4424,10 +4428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X268"/>
+  <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H263" sqref="H263"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8257,554 +8261,567 @@
     </row>
     <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="G228" s="18" t="s">
+      <c r="G229" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="H228" s="18" t="s">
+      <c r="H229" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I229" t="s">
         <v>828</v>
       </c>
-      <c r="J228" t="s">
+      <c r="J229" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="G229" s="8" t="s">
+    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="G230" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="H229" s="7" t="s">
+      <c r="H230" s="7" t="s">
         <v>831</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A230" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A232" s="8" t="s">
+    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B233" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G233" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G234" t="s">
         <v>887</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H234" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="B234" s="17" t="s">
+      <c r="B235" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G235" t="s">
         <v>889</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H235" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
+    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B236" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G236" t="s">
         <v>891</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H236" t="s">
         <v>891</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I236" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A236" s="6" t="s">
+    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B237" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="G237" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H237" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>867</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>868</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="H237" s="6" t="s">
+      <c r="H238" s="6" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A238" s="8" t="s">
+    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>870</v>
       </c>
-      <c r="G238" s="8" t="s">
+      <c r="G239" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H239" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>872</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G240" t="s">
         <v>898</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H240" t="s">
         <v>898</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I240" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
+    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="G240" s="2" t="s">
+      <c r="G241" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="H240" s="2" t="s">
+      <c r="H241" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A241" s="8" t="s">
+    <row r="242" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>875</v>
       </c>
-      <c r="G241" s="8" t="s">
+      <c r="G242" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H242" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A242" s="2" t="s">
+    <row r="243" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B243" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="G242" s="2" t="s">
+      <c r="G243" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="H243" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I243" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>878</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>878</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>878</v>
       </c>
-      <c r="G243" s="2" t="s">
+      <c r="G244" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="H244" s="2" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>880</v>
       </c>
-      <c r="G244" s="2" t="s">
+      <c r="G245" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="H244" s="2" t="s">
+      <c r="H245" s="2" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="246" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>881</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>881</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
         <v>881</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G246" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H246" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
+    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="G246" s="8" t="s">
+      <c r="G247" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>885</v>
       </c>
-      <c r="G247" s="8" t="s">
+      <c r="G248" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="H247" s="2" t="s">
+      <c r="H248" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="G248" s="1" t="s">
+    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G249" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="H248" s="8" t="s">
+      <c r="H249" s="8" t="s">
         <v>914</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>924</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="H249" s="8" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>925</v>
-      </c>
-      <c r="B250" t="s">
-        <v>925</v>
-      </c>
-      <c r="C250" t="s">
-        <v>925</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>917</v>
+        <v>924</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
+        <v>925</v>
+      </c>
+      <c r="B251" t="s">
+        <v>925</v>
+      </c>
+      <c r="C251" t="s">
+        <v>925</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>926</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>927</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H251" s="8" t="s">
+      <c r="H252" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I252" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B253" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="H252" s="8" t="s">
+      <c r="H253" s="8" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A253" s="8" t="s">
+    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A254" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>931</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="G255" s="17" t="s">
-        <v>945</v>
-      </c>
-      <c r="H255" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="I255" t="s">
-        <v>947</v>
+        <v>933</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="G256" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="I256" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B257" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="H256" s="8" t="s">
+      <c r="H257" s="8" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A257" s="2" t="s">
+    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="H257" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="I257" s="1" t="s">
+      <c r="I258" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A258" s="18" t="s">
+    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A259" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B259" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C259" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D259" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H259" t="s">
         <v>952</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A259" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="C259" t="s">
-        <v>942</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="H259" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="C260" t="s">
+        <v>942</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H260" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>943</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>943</v>
       </c>
-      <c r="F260">
+      <c r="F261">
         <v>7</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H261" t="s">
         <v>956</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="F261">
-        <v>4</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="F263">
         <v>6</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="H262" s="8" t="s">
+      <c r="H263" s="8" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="G263" s="1" t="s">
+    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G264" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="H263" t="s">
+      <c r="H264" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="G264" s="8" t="s">
+    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G265" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="H264" s="2" t="s">
+      <c r="H265" s="2" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="G265" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="H265" s="7" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="G266" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G267" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H267" t="s">
         <v>968</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="I267" s="1" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="G267" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="H267" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="G268" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="H268" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="G269" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="H268" t="s">
+      <c r="H269" t="s">
         <v>972</v>
       </c>
     </row>
@@ -8817,7 +8834,32 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>196</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>236220</xdr:colOff>
+                <xdr:row>198</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8837,32 +8879,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>196</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>236220</xdr:colOff>
-                <xdr:row>198</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
